--- a/docs/courses/statistics/2-categorical-data/3-testing/data/control-testing.xlsx
+++ b/docs/courses/statistics/2-categorical-data/3-testing/data/control-testing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t xml:space="preserve">Left/Right Handed</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisher Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi-Squared Test</t>
   </si>
 </sst>
 </file>
@@ -73,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -94,12 +101,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,24 +171,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -195,142 +204,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
